--- a/ReportingContetieux.xlsx
+++ b/ReportingContetieux.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13694CB1-88F2-4AEB-977A-13C5FB7D496C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548EF7D-43BC-4964-89EC-7B92A7996FA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -49,6 +49,186 @@
   </si>
   <si>
     <t>AAOTD_GTO_ALMERYS</t>
+  </si>
+  <si>
+    <t>AAOTD_CBTP</t>
+  </si>
+  <si>
+    <t>AAOTD_GTO_CBTP</t>
+  </si>
+  <si>
+    <t>AAOTD_PACK SPE_ALMERYS</t>
+  </si>
+  <si>
+    <t>coaaotdgtoalmerys</t>
+  </si>
+  <si>
+    <t>coaaotdcbtp</t>
+  </si>
+  <si>
+    <t>coaaotdgtocbtp</t>
+  </si>
+  <si>
+    <t>coaaotdpackspe</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_APHP/</t>
+  </si>
+  <si>
+    <t>SPE_APHP</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_IMPUTATION</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_APHP</t>
+  </si>
+  <si>
+    <t>IMPUTATION ALMERYS</t>
+  </si>
+  <si>
+    <t>IMPUTATION CBTP</t>
+  </si>
+  <si>
+    <t>OPERATEUR SSTT</t>
+  </si>
+  <si>
+    <t>RETOUR_HOSPI\RETOUR_SDR</t>
+  </si>
+  <si>
+    <t>ALMERYS</t>
+  </si>
+  <si>
+    <t>CBTP</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_HOSPI_TRE</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_OTD</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_SPE_HOSPI_ADR</t>
+  </si>
+  <si>
+    <t>ADR_APHP_ALMERYS</t>
+  </si>
+  <si>
+    <t>ADR_APHP_CBTP</t>
+  </si>
+  <si>
+    <t>ADR_CLASSIQUE_ALMERYS</t>
+  </si>
+  <si>
+    <t>ADR_CLASSIQUE_CBTP</t>
+  </si>
+  <si>
+    <t>Saisie effectuée</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_HOSPI_CAPIO</t>
+  </si>
+  <si>
+    <t>CAPIO</t>
+  </si>
+  <si>
+    <t>N° FINESS</t>
+  </si>
+  <si>
+    <t>\RETOUR_LDR\RETOUR_LDR_ALMERYS</t>
+  </si>
+  <si>
+    <t>PRIVE_GTO</t>
+  </si>
+  <si>
+    <t>PUBLIC_GTO</t>
+  </si>
+  <si>
+    <t>\RETOUR_LDR\RETOUR_LDR_CBTP</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_IMPUTATION/</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_SDR/</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_HOSPI_TRE/</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_OTD/</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_SPE_HOSPI_ADR/</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_HOSPI_CAPIO/</t>
+  </si>
+  <si>
+    <t>/RETOUR_LDR/RETOUR_LDR_ALMERYS/</t>
+  </si>
+  <si>
+    <t>/RETOUR_LDR/RETOUR_LDR_CBTP/</t>
+  </si>
+  <si>
+    <t>coaphp</t>
+  </si>
+  <si>
+    <t>coimputationalmerys</t>
+  </si>
+  <si>
+    <t>cosdralmerys</t>
+  </si>
+  <si>
+    <t>cootdalmerys</t>
+  </si>
+  <si>
+    <t>coimputationcbtp</t>
+  </si>
+  <si>
+    <t>cosdrcbtp</t>
+  </si>
+  <si>
+    <t>cootdclient</t>
+  </si>
+  <si>
+    <t>cootdcbtp</t>
+  </si>
+  <si>
+    <t>cotre</t>
+  </si>
+  <si>
+    <t>coadraphpalmerys</t>
+  </si>
+  <si>
+    <t>coadraphpcbtp</t>
+  </si>
+  <si>
+    <t>coadrclassiquealmerys</t>
+  </si>
+  <si>
+    <t>coadrclassiquecbtp</t>
+  </si>
+  <si>
+    <t>cocapio</t>
+  </si>
+  <si>
+    <t>coldralmerysprivee</t>
+  </si>
+  <si>
+    <t>coldralmeryspublic</t>
+  </si>
+  <si>
+    <t>coldrcbtpprivee</t>
+  </si>
+  <si>
+    <t>coldrcbtppublic</t>
+  </si>
+  <si>
+    <t>RECEPTION</t>
   </si>
 </sst>
 </file>
@@ -112,10 +292,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
-  <dimension ref="A1:J19"/>
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,11 +627,11 @@
     <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" customWidth="1"/>
     <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="58.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" customWidth="1"/>
     <col min="10" max="10" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -514,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -543,10 +724,10 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>2</v>
@@ -575,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
@@ -607,58 +788,622 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ReportingContetieux.xlsx
+++ b/ReportingContetieux.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4548EF7D-43BC-4964-89EC-7B92A7996FA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E1DEA-C2E7-45EE-B32A-AF2AC70FFE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingContetieux.xlsx
+++ b/ReportingContetieux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E1DEA-C2E7-45EE-B32A-AF2AC70FFE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509F387D-1191-4AC6-A7DD-DAA21A579D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-20745" yWindow="4350" windowWidth="13230" windowHeight="9855" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -613,8 +613,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,8 +625,8 @@
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="40.5703125" customWidth="1"/>
     <col min="10" max="10" width="53.7109375" customWidth="1"/>
   </cols>

--- a/ReportingContetieux.xlsx
+++ b/ReportingContetieux.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetOdilon\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509F387D-1191-4AC6-A7DD-DAA21A579D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D2004-8D6A-4EE9-AF4C-5FA4BFF21656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20745" yWindow="4350" windowWidth="13230" windowHeight="9855" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="66">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -216,13 +217,7 @@
     <t>cocapio</t>
   </si>
   <si>
-    <t>coldralmerysprivee</t>
-  </si>
-  <si>
     <t>coldralmeryspublic</t>
-  </si>
-  <si>
-    <t>coldrcbtpprivee</t>
   </si>
   <si>
     <t>coldrcbtppublic</t>
@@ -257,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,13 +261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,13 +278,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,803 +599,896 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5703125" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="53.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="K6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J8" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J9" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J10" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="G13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="J13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="K14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="G16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="K20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="K21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="K22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="K23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E567B3F9-ABA1-429A-A786-E5D26314EB1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="57.85546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ReportingContetieux.xlsx
+++ b/ReportingContetieux.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509F387D-1191-4AC6-A7DD-DAA21A579D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20745" yWindow="4350" windowWidth="13230" windowHeight="9855" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-20745" yWindow="4350" windowWidth="13230" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -216,13 +215,7 @@
     <t>cocapio</t>
   </si>
   <si>
-    <t>coldralmerysprivee</t>
-  </si>
-  <si>
     <t>coldralmeryspublic</t>
-  </si>
-  <si>
-    <t>coldrcbtpprivee</t>
   </si>
   <si>
     <t>coldrcbtppublic</t>
@@ -234,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,12 +602,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +973,7 @@
         <v>25</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1329,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>2</v>
@@ -1358,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
         <v>2</v>
@@ -1386,8 +1379,8 @@
       <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>65</v>
+      <c r="F23" t="s">
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>2</v>

--- a/ReportingContetieux.xlsx
+++ b/ReportingContetieux.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE05D9B2-D694-4B6A-BA47-EC2150CCFC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20745" yWindow="4350" windowWidth="13230" windowHeight="9855"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -227,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +270,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,13 +289,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,12 +611,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,35 +633,35 @@
     <col min="10" max="10" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -688,35 +697,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ReportingContetieux.xlsx
+++ b/ReportingContetieux.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC11A2EF-8F76-4A29-BD19-5319D94F1027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414B7E7A-26B1-4D9E-90D7-2F6C53CA3110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>RECEPTION</t>
+  </si>
+  <si>
+    <t>comonaco</t>
+  </si>
+  <si>
+    <t>Etat fin de traitement N1</t>
   </si>
 </sst>
 </file>
@@ -277,13 +283,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,8 +608,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +621,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="40.5703125" customWidth="1"/>
     <col min="10" max="10" width="53.7109375" customWidth="1"/>
   </cols>
@@ -1325,17 +1332,34 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ReportingContetieux.xlsx
+++ b/ReportingContetieux.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414B7E7A-26B1-4D9E-90D7-2F6C53CA3110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2B4689-B5A8-4E68-9CBD-99F9347A531A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -606,10 +607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +619,7 @@
     <col min="2" max="2" width="90.140625" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
@@ -1332,38 +1333,53 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAE75CE-8521-47A2-97F1-7C71D77417F7}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>